--- a/KaryShoes.xlsx
+++ b/KaryShoes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\power\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\power\Documents\GitHub\Karyshoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{7B4DE03F-B05A-460E-8538-75100E0F39D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A4A24E-3AC8-41B8-B894-858245559832}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{1AE8D9EA-3271-4EF8-95B6-FBDE899126F6}"/>
   </bookViews>
@@ -376,17 +376,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51420774-00C3-4139-8434-8313625B150A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1234</v>
+      </c>
+      <c r="B1">
+        <v>5678</v>
       </c>
     </row>
   </sheetData>
